--- a/data/financial_statements/soci/RTX.xlsx
+++ b/data/financial_statements/soci/RTX.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -494,4455 +608,4545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>18093000000</v>
+      </c>
+      <c r="C2">
         <v>16951000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>16314000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>15716000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>17044000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>16213000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>15880000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>15251000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>16419000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>14747000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>14061000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>11360000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4282000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>11373000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>11329000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>18365000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>-13756000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>16510000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>16705000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>15242000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>15680000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>15062000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>15280000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>13815000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>14659000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>14354000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>14874000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>13357000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>14300000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>13788000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>14690000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>13320000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>11351000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>14613000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>17191000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>14745000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>10733000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>15462000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>16006000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>14399000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.0615</v>
+      </c>
+      <c r="C3">
         <v>0.0455</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.0273</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0305</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.0381</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0994</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.1294</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.3425</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2.8344</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.2967</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.2412</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.3814</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.3113</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-0.3111</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-0.3218</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.2049</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-1.8773</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0961</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.09329999999999999</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1033</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0697</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0493</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0273</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0343</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.0251</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.0411</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.0125</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0028</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.2598</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.0565</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.1455</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.09660000000000001</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0576</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-0.0549</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.074</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.024</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.3473</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0279</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.1593</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.1597</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>14526000000</v>
+      </c>
+      <c r="C4">
         <v>13464000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>12856000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>12560000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>13616000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>13089000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>12655000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>12537000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>14266000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>13004000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>12214000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8572000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3828000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>8509000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>8554000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>13707000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-8773000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>12536000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>12422000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>11280000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>11795000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>11106000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>11164000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>10136000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>10734000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>10342000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>10741000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>9654000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>10653000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>9800000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>10472000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>9506000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>7112000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>10165000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>12931000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>10690000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>7431000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>11020000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>11552000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>10465000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>3567000000</v>
+      </c>
+      <c r="C5">
         <v>3487000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3458000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3156000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3428000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3124000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3225000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2714000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2153000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1743000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1847000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2788000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>454000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2864000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>2775000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>4658000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-4983000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>3974000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>4283000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>3962000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>3885000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>3956000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>4116000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>3679000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>3925000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>4012000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>4133000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>3703000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>3647000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>3988000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>4218000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>3814000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>4239000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>4448000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>4260000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>4055000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>3302000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>4442000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>4454000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>3934000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>716000000</v>
+      </c>
+      <c r="C6">
         <v>662000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>698000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>635000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>810000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>676000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>657000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>589000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>710000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>642000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>695000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>535000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>527000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>592000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>605000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>728000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>149000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>586000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>589000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>554000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>630000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>592000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>619000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>586000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>665000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>582000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>588000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>541000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>611000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>546000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>558000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>564000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>545000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>640000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>666000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>624000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>471000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>630000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>631000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>610000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>1379000000</v>
+      </c>
+      <c r="C7">
         <v>1391000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1424000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1469000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1407000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1229000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1368000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1220000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1351000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1401000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1811000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>977000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-90000000</v>
-      </c>
-      <c r="N7">
-        <v>902000000</v>
       </c>
       <c r="O7">
         <v>902000000</v>
       </c>
       <c r="P7">
+        <v>902000000</v>
+      </c>
+      <c r="Q7">
         <v>1997000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-2287000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1681000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1759000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1711000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1720000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1582000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1590000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>1537000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1754000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>1390000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1451000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>1363000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>1625000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>1359000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>1426000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1476000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>1452000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1501000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1623000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>1596000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>1367000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1633000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>1737000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1627000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>1501000000</v>
+      </c>
+      <c r="C8">
         <v>1480000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1353000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1080000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1320000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1343000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1282000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1013000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>142000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>434000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-3760000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1295000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>53000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1430000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1386000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>2045000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-3765000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1838000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>2876000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1928000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1798000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>2032000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>2164000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>2144000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>1688000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>2251000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>2337000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>1945000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>392000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>2302000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>2415000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>2182000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>2528000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>2612000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>2355000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>2098000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>1670000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>2366000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>2507000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>2006000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>326000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>320000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>322000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>320000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>335000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>346000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>357000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>367000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>356000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>346000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>400000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>450000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>318000000</v>
+      </c>
+      <c r="C10">
         <v>311000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>329000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>318000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>276000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>358000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>342000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>346000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>349000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>350000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>335000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>332000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>406000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>402000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>352000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>431000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>311000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>258000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>234000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>229000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>247000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>223000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>226000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>213000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>366000000</v>
-      </c>
-      <c r="Z10">
-        <v>225000000</v>
       </c>
       <c r="AA10">
         <v>225000000</v>
       </c>
       <c r="AB10">
+        <v>225000000</v>
+      </c>
+      <c r="AC10">
         <v>223000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>206000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>184000000</v>
-      </c>
-      <c r="AE10">
-        <v>217000000</v>
       </c>
       <c r="AF10">
         <v>217000000</v>
       </c>
       <c r="AG10">
+        <v>217000000</v>
+      </c>
+      <c r="AH10">
         <v>265000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>185000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>206000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>225000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>216000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>226000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>217000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>236000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>149000000</v>
+      </c>
+      <c r="C11">
         <v>157000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>145000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>162000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-453000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>133000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>148000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>145000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-105000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-97000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-98000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-164000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-274000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-113000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-152000000</v>
-      </c>
-      <c r="P11">
-        <v>-223000000</v>
       </c>
       <c r="Q11">
         <v>-223000000</v>
       </c>
       <c r="R11">
+        <v>-223000000</v>
+      </c>
+      <c r="S11">
         <v>-70000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-42000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-38000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-93000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-92000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-100000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-90000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-415000000</v>
-      </c>
-      <c r="Z11">
-        <v>-225000000</v>
       </c>
       <c r="AA11">
         <v>-225000000</v>
       </c>
       <c r="AB11">
+        <v>-225000000</v>
+      </c>
+      <c r="AC11">
         <v>-223000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-206000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-184000000</v>
-      </c>
-      <c r="AE11">
-        <v>-217000000</v>
       </c>
       <c r="AF11">
         <v>-217000000</v>
       </c>
       <c r="AG11">
+        <v>-217000000</v>
+      </c>
+      <c r="AH11">
         <v>-265000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-185000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-206000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-225000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-216000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-226000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-217000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-236000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>1650000000</v>
+      </c>
+      <c r="C12">
         <v>1637000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1498000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1242000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>867000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1476000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1430000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1158000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>37000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>337000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-3858000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1131000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-221000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1317000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1234000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1822000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-3988000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1768000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2834000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1890000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1705000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1940000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>2064000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>2054000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>1273000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>2026000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>2112000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>1722000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>186000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>2118000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>2198000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1965000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>2263000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>2427000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>2149000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>1873000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1454000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>2140000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>2290000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1770000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>182000000</v>
+      </c>
+      <c r="C13">
         <v>242000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>160000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>116000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>96000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>342000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>345000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-178000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>152000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-38000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>639000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-288000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>306000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>6000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>397000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-538000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>419000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>695000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>522000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>1219000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>506000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>532000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>586000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>149000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>492000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>587000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>469000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>363000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>592000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>626000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>530000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>743000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>575000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>359000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>567000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>322000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>614000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>645000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>418000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>1468000000</v>
+      </c>
+      <c r="C14">
         <v>1395000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1338000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1126000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>771000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1473000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1088000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>813000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>215000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>185000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-3820000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>492000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>67000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1011000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1228000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1425000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-3450000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1349000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2139000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1368000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>486000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1434000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1532000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1468000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1124000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1534000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1525000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1253000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-177000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1526000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1572000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1435000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1520000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1852000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1790000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1306000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1132000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1526000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1645000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1352000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15">
         <v>48000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>41000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>91000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>99000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>81000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>79000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>99000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>111000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>71000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>305000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>97000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>104000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>111000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>93000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>82000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>46000000</v>
+      </c>
+      <c r="C16">
         <v>8000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>34000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>23000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>86000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>73000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>48000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>41000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>69000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>34000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>24000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>54000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>44000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>53000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>45000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>79000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-83000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>111000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>91000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>71000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>89000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>104000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>93000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>82000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>110000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>93000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>1422000000</v>
+      </c>
+      <c r="C17">
         <v>1387000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1304000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1084000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>686000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1393000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1032000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>753000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>135000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>264000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-3835000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-83000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1143000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1148000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1900000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1346000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>686000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1238000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>2048000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1297000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>397000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1330000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1439000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1386000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1013000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>1480000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>1379000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>1183000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>3278000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>1362000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>1542000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>1426000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1473000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1854000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1680000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>1213000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1463000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>1432000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>1560000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1266000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>0.9399999999999999</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.88</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.73</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.46</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.93</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.6899999999999999</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.5</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.09</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.17</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-2.55</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-0.1</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1.33</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1.34</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>2.22</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1.58</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.83</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1.56</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2.59</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1.64</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.5</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1.69</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1.83</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>1.75</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1.26</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>1.8</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1.66</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1.44</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>3.86</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>1.56</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>1.76</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1.6</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1.64</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>2.07</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1.87</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1.35</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1.63</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>1.59</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1.73</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>1.41</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>0.9399999999999999</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.88</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.72</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.46</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.93</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.68</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.5</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.09</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.17</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-2.55</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-0.1</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1.32</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1.33</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2.2</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1.56</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.83</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1.54</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2.56</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1.62</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.5</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>1.67</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>1.8</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>1.73</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>1.25</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>1.78</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>1.65</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>1.43</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>3.86</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>1.54</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>1.73</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>1.58</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>1.62</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>2.04</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1.84</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1.32</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>1.6</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>1.57</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>1.71</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>1.39</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>1465500000</v>
+      </c>
+      <c r="C20">
         <v>1470100000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1479200000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1486800000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1501600000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1497900000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1506400000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1511100000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1357800000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1511500000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1501300000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>858400000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>854800000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>855100000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>854400000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>853200000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>800400000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>791300000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>790500000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>789900000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>790000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>788300000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>788700000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>793500000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>818200000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>822400000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>825300000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>825000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>872700000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>876400000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>877300000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>890300000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>898300000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>897700000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>900100000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>900900000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>901000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>900800000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>901100000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>901300000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>1476300000</v>
+      </c>
+      <c r="C21">
         <v>1479300000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1489600000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1497900000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1508500000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1505900000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1513500000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1514100000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1357800000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1514200000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1501300000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>865800000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>863900000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>864100000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>863700000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>860700000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>810100000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>801800000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>799600000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>800400000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>799100000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>797100000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>798200000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>802300000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>826100000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>831200000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>833600000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>831300000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>883200000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>885000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>889400000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>904200000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>911600000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>910200000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>914700000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>917000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>915100000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>915500000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>914100000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>913800000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.1971</v>
+      </c>
+      <c r="C22">
         <v>0.2057</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.212</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2008</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.2011</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.1927</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.2031</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.178</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.1311</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.1182</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.1314</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.2454</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.106</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.2518</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.2449</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.2536</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.3622</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.2407</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.2564</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.2599</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.2478</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.2626</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.2694</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.2663</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2678</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.2795</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.2779</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.2772</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.255</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.2892</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.2871</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.2863</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.3734</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.3044</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.2478</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.275</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.3076</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.2873</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.2783</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.2732</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.083</v>
+      </c>
+      <c r="C23">
         <v>0.0873</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.0829</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.0687</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.0774</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.0828</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.08069999999999999</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.0664</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.0086</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.0294</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-0.2674</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.114</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.0124</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.1257</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.1223</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.1114</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.2737</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.1113</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.1722</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.1265</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.1147</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.1349</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.1416</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.1552</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.1152</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.1568</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.1571</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.1456</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.0274</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.167</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.1644</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.1638</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.2227</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.1787</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.137</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.1423</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.1556</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.153</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.1566</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.1393</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>0.0912</v>
+      </c>
+      <c r="C24">
         <v>0.09660000000000001</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.09180000000000001</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.079</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.0509</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.091</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.0901</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.0759</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.0023</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.0229</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-0.2744</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.09959999999999999</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-0.0516</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.1158</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.1089</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.0992</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.2899</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.1071</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.1696</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.124</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.1087</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.1288</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.1351</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.1487</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.0868</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.1411</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.142</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.1289</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.013</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.1536</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.1496</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.1475</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.1994</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.1661</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.125</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.127</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.1355</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.1384</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.1431</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.1229</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>0.0786</v>
+      </c>
+      <c r="C25">
         <v>0.0818</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.0799</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.06900000000000001</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.0402</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.0859</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.065</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.0494</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.008200000000000001</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.0179</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-0.2727</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-0.0073</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.2669</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0.1009</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.1677</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.0733</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-0.0499</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.075</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.1226</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.0851</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0253</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0883</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.09420000000000001</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0.1003</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.06909999999999999</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.1031</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>0.0927</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>0.0886</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.2292</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.0988</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>0.105</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>0.1071</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.1298</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0.1269</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.0977</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.0823</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.1363</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.0926</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.0975</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0.08790000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>2527000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2352000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2094000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2464000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2501000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2414000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2136000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1295000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1598000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>534000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>2023000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>739000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>2122000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1774000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>2987000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-3635000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2431000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>3468000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2509000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>2356000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>2575000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>2691000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>2656000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>2194000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>2747000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>2831000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>2411000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>854000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>2788000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>2872000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>2640000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>2996000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>3029000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>2823000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>2565000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>2070000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>2818000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>2946000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>2450000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>1501000000</v>
+      </c>
+      <c r="C27">
         <v>1480000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1353000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1080000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1320000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1343000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1282000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1013000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>142000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>434000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-3760000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1295000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>53000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1430000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1386000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>2045000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-3765000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1838000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>2876000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1928000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1798000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>2032000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>2164000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>2144000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1688000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>2251000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>2337000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>1945000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>392000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>2302000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>2415000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>2182000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>2528000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>2612000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>2355000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>2098000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>1670000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>2366000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>2507000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>2006000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>1468000000</v>
+      </c>
+      <c r="C28">
         <v>1395000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1338000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1126000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>771000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1473000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1088000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>813000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>215000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>185000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-3820000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>492000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>67000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1011000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1228000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1425000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-3450000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1349000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2139000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1368000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>486000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>1434000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>1532000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>1468000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1395000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>1443000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>1426000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>1172000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-256000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>1427000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>1461000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>1364000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>1215000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>1755000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>1790000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>1306000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>1028000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>1415000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>1552000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1270000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29">
         <v>-19000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-7000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-8000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-19000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-11000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>113000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>9000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-521000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1120000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>190000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>717000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-11000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>37000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-47000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>11000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>3534000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-65000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>81000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>62000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>55000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>99000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>435000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>17000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>8000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-4000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>1468000000</v>
+      </c>
+      <c r="C30">
         <v>1395000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1338000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1107000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>772000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1466000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1080000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>794000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>204000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>298000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-3811000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-29000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1187000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1201000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1945000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1425000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>603000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>1349000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>2139000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1368000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>486000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1434000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1532000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1468000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1384000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1480000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1379000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1183000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>3278000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1362000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1542000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1426000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1270000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1854000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1790000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1306000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1463000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1432000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1560000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1266000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>0.97</v>
+      </c>
+      <c r="C31">
         <v>0.9399999999999999</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.88</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.74</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.47</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.93</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.6899999999999999</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.51</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.34</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.1</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-2.56</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.51</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-0.0602</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1.12</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>1.38</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1.6702</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-4.6225</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1.7048</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>2.7059</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1.7319</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.7163</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1.8191</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>1.9424</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>1.75</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1.28</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>1.76</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>1.73</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>1.42</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-0.25</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>1.63</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1.67</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1.53</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>1.3517</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1.96</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1.9887</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>1.4497</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1.14</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>1.57</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>1.72</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1.41</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>0.96</v>
+      </c>
+      <c r="C32">
         <v>0.9399999999999999</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.88</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.74</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.45</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.93</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.6899999999999999</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.51</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-0.33</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.1</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-2.56</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.5</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-0.0756</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>1.11</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>1.37</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>1.6556</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-4.5667</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>1.6825</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>2.6751</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>1.7091</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.7086</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>1.799</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>1.9193</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>1.73</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>1.27</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>1.74</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>1.71</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>1.41</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-0.23</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>1.61</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>1.64</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>1.51</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>1.3389</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>1.93</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>1.9569</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>1.4242</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>1.11</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>1.55</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>1.7</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>1.39</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33">
         <v>-0.02</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.0046</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-0.0046</v>
-      </c>
-      <c r="G33">
-        <v>-0.01</v>
       </c>
       <c r="H33">
         <v>-0.01</v>
       </c>
       <c r="I33">
+        <v>-0.01</v>
+      </c>
+      <c r="J33">
         <v>0.21</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.08</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.01</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-0.6</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>1.3</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.22</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.83</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-0.0036</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.04</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-0.0564</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.01</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>3.99</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>0.09</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.06</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.11</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.4744</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.02</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.01</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-0.0044</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34">
-        <v>-0.01</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E34">
         <v>-0.01</v>
       </c>
       <c r="F34">
+        <v>-0.01</v>
+      </c>
+      <c r="G34">
         <v>-0.0047</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-0.0053</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-0.01</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.22</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.08</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.01</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-0.61</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>1.31</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.22</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.84</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>-0.0031</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.04</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>-0.0569</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.01</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>4.05</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.09</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.06</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.11</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.4844</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.02</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.01</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>-0.0044</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>1.0017</v>
+      </c>
+      <c r="C35">
         <v>0.9489</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.9045</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.7446</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.5173</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.9787</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.7169</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.5254</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-0.0833</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.1972</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>-2.5385</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>-0.0338</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>1.3849</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>1.4045</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>2.2765</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>1.6702</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.6778</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>1.7048</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>2.7059</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>1.7319</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.6163</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>1.8191</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>1.9424</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>1.85</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>1.7272</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>1.7996</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>1.6709</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>1.4339</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>3.8043</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>1.5541</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>1.7577</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>1.6017</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>1.4206</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>2.0653</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>1.9887</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>1.4497</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>1.6241</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>1.5897</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>1.7312</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>1.4046</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>0.9944</v>
+      </c>
+      <c r="C36">
         <v>0.9429999999999999</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.8982</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.739</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.5144</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.9735</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.7136</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.5244</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>-0.0832</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.1968</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>-2.5385</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>-0.0335</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>1.3677</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>1.3899</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>2.2519</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>1.6556</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>0.672</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>1.6825</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>2.6751</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>1.7091</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.6088</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>1.799</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>1.9193</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>1.8297</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>1.7103</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>1.7806</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>1.6543</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>1.4231</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>3.7643</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>1.539</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>1.7338</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>1.5771</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>1.4051</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>2.0369</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>1.9569</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>1.4242</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>1.5956</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>1.5642</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>1.7066</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>1.3854</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
         <v>1479300000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1489600000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1497900000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1500200000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1505900000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1513500000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>1514100000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>1515400000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>1514200000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>1501300000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>858000000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>867000000</v>
-      </c>
-      <c r="N37">
-        <v>864000000</v>
       </c>
       <c r="O37">
         <v>864000000</v>
       </c>
       <c r="P37">
+        <v>864000000</v>
+      </c>
+      <c r="Q37">
         <v>861000000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>831000000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>802000000</v>
-      </c>
-      <c r="S37">
-        <v>800000000</v>
       </c>
       <c r="T37">
         <v>800000000</v>
       </c>
       <c r="U37">
+        <v>800000000</v>
+      </c>
+      <c r="V37">
         <v>798000000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>797000000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>798000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>802000000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>810000000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>831000000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>833000000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>831000000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>850000000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>885000000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>889000000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>904000000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>907000000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>910000000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>915000000</v>
-      </c>
-      <c r="AJ37">
-        <v>917000000</v>
       </c>
       <c r="AK37">
         <v>917000000</v>
       </c>
       <c r="AL37">
+        <v>917000000</v>
+      </c>
+      <c r="AM37">
         <v>916000000</v>
-      </c>
-      <c r="AM37">
-        <v>914000000</v>
       </c>
       <c r="AN37">
         <v>914000000</v>
       </c>
+      <c r="AO37">
+        <v>914000000</v>
+      </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>0.1491</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.1442</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.1332</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.1446</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.1543</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.152</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.1401</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.0789</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.1084</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.038</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.1781</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.1726</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.1866</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.1566</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>0.1626</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>0.2642</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>0.1472</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.2076</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.1646</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.1503</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.171</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.1761</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>0.1923</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>0.1497</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>0.1914</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>0.1903</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>0.1805</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>0.0597</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>0.2022</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>0.1955</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>0.1982</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>0.2639</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>0.2073</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>0.1642</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>0.174</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>0.1929</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>0.1823</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>0.1841</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>0.1702</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+    <row r="39" spans="1:41">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B39">
+        <v>0.2558</v>
+      </c>
+      <c r="C39">
         <v>0.0459</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.0788</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.0303</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.1855</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.1192</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>0.0835</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.0474</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.0834</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.11</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>0.0149</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>0.09959999999999999</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.3094</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>0.1519</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>0.112</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>0.08169999999999999</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>0.1197</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>0.1067</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>0.1258</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>0.0297</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>0.1608</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-0.0019</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.1404</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>0.07190000000000001</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>0.1259</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>0.1366</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>0.1216</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>0.0597</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>0.1896</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>0.0741</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>0.09370000000000001</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>0.1236</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>0.1724</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>0.1331</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>0.1013</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>0.0905</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>0.2258</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>0.0998</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>0.1211</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>0.0979</v>
       </c>
     </row>
